--- a/data/trans_dic/P21D_3_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P21D_3_R-Habitat-trans_dic.xlsx
@@ -596,11 +596,11 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.01304753710756009</v>
+        <v>0.01318875051269238</v>
       </c>
       <c r="D6" s="5" t="inlineStr"/>
       <c r="E6" s="5" t="n">
-        <v>0.006750281372545711</v>
+        <v>0.007003786640381651</v>
       </c>
     </row>
     <row r="7">
@@ -618,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.001488204915043586</v>
+        <v>0.001488204915043585</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.0007694655370961412</v>
@@ -648,10 +648,10 @@
       </c>
       <c r="C9" s="5" t="inlineStr"/>
       <c r="D9" s="5" t="n">
-        <v>0.009872884554700128</v>
+        <v>0.007411089628773515</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.003894079418799279</v>
+        <v>0.004336923710396979</v>
       </c>
     </row>
     <row r="10">
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.002575111347581026</v>
+        <v>0.002575111347581027</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.001367496414363079</v>
@@ -742,10 +742,10 @@
       </c>
       <c r="C15" s="5" t="inlineStr"/>
       <c r="D15" s="5" t="n">
-        <v>0.01016899715927405</v>
+        <v>0.008871188013475018</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.004916182808880613</v>
+        <v>0.005472900838497957</v>
       </c>
     </row>
     <row r="16">
@@ -780,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.000328038622983793</v>
+        <v>0.0003309811454637559</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.0002274175890950075</v>
+        <v>0.0002274470431892776</v>
       </c>
     </row>
     <row r="18">
@@ -794,13 +794,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.002378676745525109</v>
+        <v>0.002409872754896289</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.003270776074898455</v>
+        <v>0.003188023056097002</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.002114865679117274</v>
+        <v>0.001975663190756929</v>
       </c>
     </row>
     <row r="19">
@@ -957,11 +957,11 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>3759</v>
+        <v>3800</v>
       </c>
       <c r="D7" s="6" t="inlineStr"/>
       <c r="E7" s="6" t="n">
-        <v>4133</v>
+        <v>4288</v>
       </c>
     </row>
     <row r="8">
@@ -1026,10 +1026,10 @@
       </c>
       <c r="C11" s="6" t="inlineStr"/>
       <c r="D11" s="6" t="n">
-        <v>4970</v>
+        <v>3731</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>3791</v>
+        <v>4222</v>
       </c>
     </row>
     <row r="12">
@@ -1154,10 +1154,10 @@
       </c>
       <c r="C19" s="6" t="inlineStr"/>
       <c r="D19" s="6" t="n">
-        <v>4990</v>
+        <v>4353</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>4543</v>
+        <v>5057</v>
       </c>
     </row>
     <row r="20">
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>743</v>
@@ -1223,13 +1223,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>3730</v>
+        <v>3779</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>5550</v>
+        <v>5410</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>6905</v>
+        <v>6451</v>
       </c>
     </row>
     <row r="24">
